--- a/Cuadros/q36_ustainability.xlsx
+++ b/Cuadros/q36_ustainability.xlsx
@@ -1,57 +1,232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="q36" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="q36_q4agrup" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="q36_q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="q36_q5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="q36_q6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="q36_region" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="q36_q9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="q36_q10" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'q36_q10'!$A$33:$K$45</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>q36</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>0 Zero</t>
+  </si>
+  <si>
+    <t>1 Lower than 30%</t>
+  </si>
+  <si>
+    <t>2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t>3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t>4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t>5 Higher than 80%</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>q4_awid_focus</t>
+  </si>
+  <si>
+    <t>Other subjects</t>
+  </si>
+  <si>
+    <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LGTBIQ</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Sex_workers</t>
+  </si>
+  <si>
+    <t>Anti_caste</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Countering_anti</t>
+  </si>
+  <si>
+    <t>Harm_reduction</t>
+  </si>
+  <si>
+    <t>Disability_rights</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>Diaspora or exile</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Transnational</t>
+  </si>
+  <si>
+    <t>1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t>2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t>3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t>4. Africa</t>
+  </si>
+  <si>
+    <t>5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t>6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t>7. South West Asia/Middle East &amp; North Africa</t>
+  </si>
+  <si>
+    <t>q9_year_formation_agrup</t>
+  </si>
+  <si>
+    <t>(1) 2021-2023</t>
+  </si>
+  <si>
+    <t>(2) From 2015 to 2020</t>
+  </si>
+  <si>
+    <t>(3) From 2010 to 2014</t>
+  </si>
+  <si>
+    <t>(4) From 2000 to 2009</t>
+  </si>
+  <si>
+    <t>(5) Before 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table for 2021</t>
+  </si>
   <si>
     <t xml:space="preserve">q36</t>
   </si>
   <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Zero budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) &lt;5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c) 5001-10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(d) 10001-30000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e) 30001 -50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(f) 50001 - 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(g) 100001 - 500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(h) 500001 - 1000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(i) &gt; 1000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 Zero</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Lower than 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Higher than 80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2026</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Lower than 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Between 30% and 40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Between 50% and 60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Between 70% and 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Higher than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q4_awid_focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific AWID subjects</t>
+    <t xml:space="preserve">Table for 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table for 2023</t>
   </si>
 </sst>
 </file>
@@ -95,6 +270,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -462,11 +646,1902 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3" t="n">
+        <v>244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>146</v>
+      </c>
+      <c r="F3" t="n">
+        <v>111</v>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>371</v>
+      </c>
+      <c r="D5" t="n">
+        <v>190</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102</v>
+      </c>
+      <c r="F5" t="n">
+        <v>76</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>81</v>
+      </c>
+      <c r="I2" t="n">
+        <v>49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>74</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>330</v>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53</v>
+      </c>
+      <c r="J3" t="n">
+        <v>88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>205</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>169</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>68</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>535</v>
+      </c>
+      <c r="C8" t="n">
+        <v>183</v>
+      </c>
+      <c r="D8" t="n">
+        <v>228</v>
+      </c>
+      <c r="E8" t="n">
+        <v>113</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>165</v>
+      </c>
+      <c r="H8" t="n">
+        <v>137</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>123</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>130</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>58</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>139</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>261</v>
+      </c>
+      <c r="E4" t="n">
+        <v>177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>84</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>402</v>
+      </c>
+      <c r="D7" t="n">
+        <v>217</v>
+      </c>
+      <c r="E7" t="n">
+        <v>116</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>68</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="n">
+        <v>273</v>
+      </c>
+      <c r="D11" t="n">
+        <v>141</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>33</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>330</v>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>61</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>205</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>169</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>535</v>
+      </c>
+      <c r="C8" t="n">
+        <v>184</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>185</v>
+      </c>
+      <c r="G8" t="n">
+        <v>101</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97</v>
+      </c>
+      <c r="G9" t="n">
+        <v>59</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>139</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>49</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>83</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
@@ -476,135 +2551,1374 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="n">
-        <v>58</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>228</v>
-      </c>
-      <c r="D3" t="n">
-        <v>244</v>
-      </c>
-      <c r="E3" t="n">
-        <v>146</v>
-      </c>
-      <c r="F3" t="n">
-        <v>111</v>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>26</v>
       </c>
       <c r="H4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>371</v>
-      </c>
-      <c r="D5" t="n">
-        <v>190</v>
-      </c>
-      <c r="E5" t="n">
-        <v>102</v>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
+      </c>
+      <c r="G9" t="n">
+        <v>44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="n">
+        <v>82</v>
+      </c>
+      <c r="D18" t="n">
+        <v>70</v>
+      </c>
+      <c r="E18" t="n">
+        <v>39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65</v>
+      </c>
+      <c r="E19" t="n">
+        <v>35</v>
+      </c>
+      <c r="F19" t="n">
+        <v>61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>31</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" t="n">
+        <v>35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>87</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94</v>
+      </c>
+      <c r="E24" t="n">
+        <v>62</v>
+      </c>
+      <c r="F24" t="n">
+        <v>83</v>
+      </c>
+      <c r="G24" t="n">
+        <v>42</v>
+      </c>
+      <c r="H24" t="n">
+        <v>54</v>
+      </c>
+      <c r="I24" t="n">
+        <v>67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18</v>
+      </c>
+      <c r="H25" t="n">
+        <v>24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>49</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="n">
+        <v>72</v>
+      </c>
+      <c r="D34" t="n">
         <v>76</v>
       </c>
-      <c r="G5" t="n">
-        <v>57</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="E34" t="n">
+        <v>47</v>
+      </c>
+      <c r="F34" t="n">
+        <v>45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>28</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62</v>
+      </c>
+      <c r="E35" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" t="n">
+        <v>67</v>
+      </c>
+      <c r="G35" t="n">
+        <v>37</v>
+      </c>
+      <c r="H35" t="n">
+        <v>34</v>
+      </c>
+      <c r="I35" t="n">
+        <v>53</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
         <v>27</v>
       </c>
+      <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+      <c r="I36" t="n">
+        <v>51</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>18</v>
+      </c>
+      <c r="F37" t="n">
+        <v>26</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" t="n">
+        <v>15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" t="n">
+        <v>17</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="n">
+        <v>75</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95</v>
+      </c>
+      <c r="E40" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" t="n">
+        <v>92</v>
+      </c>
+      <c r="G40" t="n">
+        <v>61</v>
+      </c>
+      <c r="H40" t="n">
+        <v>59</v>
+      </c>
+      <c r="I40" t="n">
+        <v>73</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>46</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26</v>
+      </c>
+      <c r="F41" t="n">
+        <v>44</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>29</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="n">
+        <v>12</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A33:K45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
